--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T14:34:38+00:00</t>
+    <t>2025-08-12T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:19:17+00:00</t>
+    <t>2025-08-12T15:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:54:36+00:00</t>
+    <t>2025-08-12T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Ratio with UCUM or EDQM quantity units</t>
+    <t>Ratio with UCUM or EDQM codes if code is used</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:52:42+00:00</t>
+    <t>2025-08-13T14:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ratio with numerator and denominator unit UCUM or EDQM encoded</t>
+    <t>Ratio with numerator and denominator unit UCUM or EDQM encoded if code is used</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -345,10 +345,10 @@
 </t>
   </si>
   <si>
-    <t>Numerator with UCUM or EDQM unit</t>
-  </si>
-  <si>
-    <t>unit of measure SHALL be UCUM or EDQM encoded</t>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -361,7 +361,10 @@
     <t>Ratio.denominator</t>
   </si>
   <si>
-    <t>Denominator with UCUM or EDQM unit</t>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
   </si>
   <si>
     <t>.denominator</t>
@@ -1295,7 +1298,7 @@
         <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1364,7 +1367,7 @@
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:10:49+00:00</t>
+    <t>2025-08-13T14:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:38:26+00:00</t>
+    <t>2025-08-13T16:08:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:08:05+00:00</t>
+    <t>2025-08-13T16:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:43:50+00:00</t>
+    <t>2025-08-14T09:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T09:57:22+00:00</t>
+    <t>2025-08-14T13:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T13:55:20+00:00</t>
+    <t>2025-08-14T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:15:22+00:00</t>
+    <t>2025-08-18T13:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:25:21+00:00</t>
+    <t>2025-08-18T17:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T17:36:35+00:00</t>
+    <t>2025-08-19T07:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:49:07+00:00</t>
+    <t>2025-08-19T08:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:39:15+00:00</t>
+    <t>2025-08-19T16:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T16:40:37+00:00</t>
+    <t>2025-08-20T14:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T14:11:18+00:00</t>
+    <t>2025-08-20T15:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T15:16:03+00:00</t>
+    <t>2025-08-21T07:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:11:23+00:00</t>
+    <t>2025-08-21T07:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:13:53+00:00</t>
+    <t>2025-08-21T07:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:15:25+00:00</t>
+    <t>2025-08-21T07:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:17:21+00:00</t>
+    <t>2025-08-21T07:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:22:00+00:00</t>
+    <t>2025-08-21T07:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-FrRatioMedication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T07:24:06+00:00</t>
+    <t>2025-08-21T07:54:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
